--- a/DB.xlsx
+++ b/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20370" windowHeight="9360" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20370" windowHeight="9360" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Плохо спроектированная БД" sheetId="3" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20370" windowHeight="9360" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20370" windowHeight="9360" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Плохо спроектированная БД" sheetId="3" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
